--- a/data/pca/factorExposure/factorExposure_2017-11-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02328556539856014</v>
+        <v>-0.01421854782946855</v>
       </c>
       <c r="C2">
-        <v>0.001711917356431631</v>
+        <v>0.03791290021810791</v>
       </c>
       <c r="D2">
-        <v>0.0112838411494013</v>
+        <v>-0.0282394178519597</v>
       </c>
       <c r="E2">
-        <v>0.01627863753518176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02932881506218392</v>
+      </c>
+      <c r="F2">
+        <v>-0.0315816624441488</v>
+      </c>
+      <c r="G2">
+        <v>-0.01633842870875222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01214989200182823</v>
+        <v>-0.05076067132647254</v>
       </c>
       <c r="C3">
-        <v>-0.04912468942350647</v>
+        <v>0.08073250813697164</v>
       </c>
       <c r="D3">
-        <v>-0.01381994804968318</v>
+        <v>-0.01464736841092202</v>
       </c>
       <c r="E3">
-        <v>-0.01483083470492505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08214483050270104</v>
+      </c>
+      <c r="F3">
+        <v>-0.06298527080300416</v>
+      </c>
+      <c r="G3">
+        <v>-0.06848403615377509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02214535474858167</v>
+        <v>-0.05443268529339645</v>
       </c>
       <c r="C4">
-        <v>-0.03330758056800893</v>
+        <v>0.06499293155663417</v>
       </c>
       <c r="D4">
-        <v>0.04532160721561843</v>
+        <v>-0.02214945071131992</v>
       </c>
       <c r="E4">
-        <v>0.01467669010019501</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0005914832999582585</v>
+      </c>
+      <c r="F4">
+        <v>-0.01530196491603228</v>
+      </c>
+      <c r="G4">
+        <v>-0.04143202742732836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01492762674733528</v>
+        <v>-0.0320374039893067</v>
       </c>
       <c r="C6">
-        <v>-0.05156294562920947</v>
+        <v>0.05402892433186077</v>
       </c>
       <c r="D6">
-        <v>0.04647590867359514</v>
+        <v>-0.01613422889433956</v>
       </c>
       <c r="E6">
-        <v>0.03419419708353354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.007060506140522151</v>
+      </c>
+      <c r="F6">
+        <v>-0.0185366373857168</v>
+      </c>
+      <c r="G6">
+        <v>-0.02359718621370886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01079893399151628</v>
+        <v>-0.01923304561209749</v>
       </c>
       <c r="C7">
-        <v>-0.0251740040083472</v>
+        <v>0.03764565686137541</v>
       </c>
       <c r="D7">
-        <v>0.04763343199230242</v>
+        <v>-0.01242797449493758</v>
       </c>
       <c r="E7">
-        <v>-0.0501653124764994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01239846624466418</v>
+      </c>
+      <c r="F7">
+        <v>-0.01003960456522841</v>
+      </c>
+      <c r="G7">
+        <v>-0.07713780874238792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0005532338928576015</v>
+        <v>0.003169502082129626</v>
       </c>
       <c r="C8">
-        <v>0.01393821499417275</v>
+        <v>0.01477503032701311</v>
       </c>
       <c r="D8">
-        <v>0.02388166445347477</v>
+        <v>-0.003886845953648188</v>
       </c>
       <c r="E8">
-        <v>0.007567752786497609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01848143477165764</v>
+      </c>
+      <c r="F8">
+        <v>-0.01990291929850181</v>
+      </c>
+      <c r="G8">
+        <v>-0.02718867119835245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01426962368207335</v>
+        <v>-0.02764275369345882</v>
       </c>
       <c r="C9">
-        <v>-0.02597739366947592</v>
+        <v>0.04384789133594483</v>
       </c>
       <c r="D9">
-        <v>0.02648438434263802</v>
+        <v>-0.01549070445287017</v>
       </c>
       <c r="E9">
-        <v>0.009772729159016563</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.005703294121021118</v>
+      </c>
+      <c r="F9">
+        <v>-0.01887259395913437</v>
+      </c>
+      <c r="G9">
+        <v>-0.03326148746198467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.006748493180999264</v>
+        <v>-0.08952383514417446</v>
       </c>
       <c r="C10">
-        <v>-0.08992127369141086</v>
+        <v>-0.1843152087580167</v>
       </c>
       <c r="D10">
-        <v>-0.1246779851566494</v>
+        <v>0.01853492318190002</v>
       </c>
       <c r="E10">
-        <v>-0.0878580378711626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01991435581420443</v>
+      </c>
+      <c r="F10">
+        <v>0.01571973669470258</v>
+      </c>
+      <c r="G10">
+        <v>-0.03812084873046254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.184384804751037e-05</v>
+        <v>-0.0355437309043455</v>
       </c>
       <c r="C11">
-        <v>-0.01862112430303806</v>
+        <v>0.05316860192192687</v>
       </c>
       <c r="D11">
-        <v>0.02321343711957531</v>
+        <v>-0.001247598831537182</v>
       </c>
       <c r="E11">
-        <v>0.02860628396082839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.0009256163582599247</v>
+      </c>
+      <c r="F11">
+        <v>-0.02424153329548738</v>
+      </c>
+      <c r="G11">
+        <v>-0.01416069727516245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00518168737276696</v>
+        <v>-0.03269716478528398</v>
       </c>
       <c r="C12">
-        <v>-0.02677734448899475</v>
+        <v>0.04524274069252588</v>
       </c>
       <c r="D12">
-        <v>0.02857234397436486</v>
+        <v>-0.005454883388387809</v>
       </c>
       <c r="E12">
-        <v>0.02423410693952003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.008099708925048662</v>
+      </c>
+      <c r="F12">
+        <v>-0.007036837886247741</v>
+      </c>
+      <c r="G12">
+        <v>-0.01782126681080123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02095353074155917</v>
+        <v>-0.01203378275427007</v>
       </c>
       <c r="C13">
-        <v>-0.01171805250767229</v>
+        <v>0.03401202142655929</v>
       </c>
       <c r="D13">
-        <v>0.005128085787058602</v>
+        <v>-0.02465681405059541</v>
       </c>
       <c r="E13">
-        <v>0.009571674629751888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02468757639390665</v>
+      </c>
+      <c r="F13">
+        <v>-0.0230715104543978</v>
+      </c>
+      <c r="G13">
+        <v>-0.0303390425650837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007023901196501815</v>
+        <v>-0.007368955894351284</v>
       </c>
       <c r="C14">
-        <v>-0.01528023008274947</v>
+        <v>0.02546803982752062</v>
       </c>
       <c r="D14">
-        <v>0.01643832789719104</v>
+        <v>-0.008463730271131622</v>
       </c>
       <c r="E14">
-        <v>-0.003965879321458922</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004265636738347805</v>
+      </c>
+      <c r="F14">
+        <v>-0.002739917575635028</v>
+      </c>
+      <c r="G14">
+        <v>-0.03939549702450402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0002663172187919314</v>
+        <v>-0.03196136827662189</v>
       </c>
       <c r="C16">
-        <v>-0.02295803855022262</v>
+        <v>0.04330990261256034</v>
       </c>
       <c r="D16">
-        <v>0.03151661719104543</v>
+        <v>-0.0008912443161179873</v>
       </c>
       <c r="E16">
-        <v>0.02720749899005172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.001132460715260526</v>
+      </c>
+      <c r="F16">
+        <v>-0.01041512413990648</v>
+      </c>
+      <c r="G16">
+        <v>-0.01749581657909921</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01171011083848566</v>
+        <v>-0.02847850876622982</v>
       </c>
       <c r="C19">
-        <v>-0.01814019554277771</v>
+        <v>0.05567342424506162</v>
       </c>
       <c r="D19">
-        <v>0.02680354106938643</v>
+        <v>-0.01542859653822169</v>
       </c>
       <c r="E19">
-        <v>0.01955517191833657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.04072507997512659</v>
+      </c>
+      <c r="F19">
+        <v>-0.03653677321768912</v>
+      </c>
+      <c r="G19">
+        <v>-0.03750504219700861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009756036474417104</v>
+        <v>-0.0110562611068281</v>
       </c>
       <c r="C20">
-        <v>-0.002455571022281332</v>
+        <v>0.03487288422412324</v>
       </c>
       <c r="D20">
-        <v>0.004760855858625324</v>
+        <v>-0.01303528038069221</v>
       </c>
       <c r="E20">
-        <v>-0.00117021170138021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02233864209539439</v>
+      </c>
+      <c r="F20">
+        <v>-0.005571643698015869</v>
+      </c>
+      <c r="G20">
+        <v>-0.02981345883012717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01339854382175367</v>
+        <v>-0.0121177329547502</v>
       </c>
       <c r="C21">
-        <v>-0.03203788308834486</v>
+        <v>0.03367836127919396</v>
       </c>
       <c r="D21">
-        <v>0.01978060938063884</v>
+        <v>-0.01612066725760187</v>
       </c>
       <c r="E21">
-        <v>-0.008497949375770831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03008538709700707</v>
+      </c>
+      <c r="F21">
+        <v>-0.0205870182637085</v>
+      </c>
+      <c r="G21">
+        <v>-0.05388047316423422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.00447694596031597</v>
+        <v>-0.02665543655281087</v>
       </c>
       <c r="C24">
-        <v>-0.02017032292552725</v>
+        <v>0.04635526838607908</v>
       </c>
       <c r="D24">
-        <v>0.02681116873595124</v>
+        <v>-0.006223837477617952</v>
       </c>
       <c r="E24">
-        <v>0.02445968272164966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0047535508037748</v>
+      </c>
+      <c r="F24">
+        <v>-0.01999110330233184</v>
+      </c>
+      <c r="G24">
+        <v>-0.01702509863909062</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01078242213635343</v>
+        <v>-0.04357321006617403</v>
       </c>
       <c r="C25">
-        <v>-0.03347614573525236</v>
+        <v>0.05343453880257535</v>
       </c>
       <c r="D25">
-        <v>0.02653191765456859</v>
+        <v>-0.01006814736434259</v>
       </c>
       <c r="E25">
-        <v>0.02737922053070999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01216999053528398</v>
+      </c>
+      <c r="F25">
+        <v>-0.01470811605898742</v>
+      </c>
+      <c r="G25">
+        <v>-0.02232405584751512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02261225890051691</v>
+        <v>-0.008216139480813477</v>
       </c>
       <c r="C26">
-        <v>-0.002584056578499213</v>
+        <v>0.008992226610559251</v>
       </c>
       <c r="D26">
-        <v>0.001731440507965862</v>
+        <v>-0.0236774985959776</v>
       </c>
       <c r="E26">
-        <v>-0.0077875314687002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009128939301343977</v>
+      </c>
+      <c r="F26">
+        <v>-0.00597749924286324</v>
+      </c>
+      <c r="G26">
+        <v>-0.02554203643024579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02216120208166903</v>
+        <v>-0.1129347208142867</v>
       </c>
       <c r="C28">
-        <v>-0.1348652553754802</v>
+        <v>-0.227024031958036</v>
       </c>
       <c r="D28">
-        <v>-0.1927922071196896</v>
+        <v>0.009902240526341734</v>
       </c>
       <c r="E28">
-        <v>-0.1422236621744437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00881965744388708</v>
+      </c>
+      <c r="F28">
+        <v>0.008252899550275129</v>
+      </c>
+      <c r="G28">
+        <v>-0.05412378813809236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006857695375606284</v>
+        <v>-0.0125690313508815</v>
       </c>
       <c r="C29">
-        <v>-0.01654447887987552</v>
+        <v>0.01912881539973215</v>
       </c>
       <c r="D29">
-        <v>0.01229934099739247</v>
+        <v>-0.007171737632595674</v>
       </c>
       <c r="E29">
-        <v>-0.002143870585516816</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001847283027932552</v>
+      </c>
+      <c r="F29">
+        <v>0.006191365684039617</v>
+      </c>
+      <c r="G29">
+        <v>-0.03197610222099347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02379029435636023</v>
+        <v>-0.04011223879702224</v>
       </c>
       <c r="C30">
-        <v>-0.02976535704523774</v>
+        <v>0.07064058522213076</v>
       </c>
       <c r="D30">
-        <v>0.01287773637272381</v>
+        <v>-0.02675874036218053</v>
       </c>
       <c r="E30">
-        <v>0.0820782932315617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02183472707295709</v>
+      </c>
+      <c r="F30">
+        <v>-0.04534579478055155</v>
+      </c>
+      <c r="G30">
+        <v>0.003195450917182207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.005905625880336547</v>
+        <v>-0.0440802689902025</v>
       </c>
       <c r="C31">
-        <v>-0.04988606001920162</v>
+        <v>0.03140589478677289</v>
       </c>
       <c r="D31">
-        <v>0.02301648480318997</v>
+        <v>-0.002953973085439715</v>
       </c>
       <c r="E31">
-        <v>0.008602510131542044</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01011618677220391</v>
+      </c>
+      <c r="F31">
+        <v>0.03783721188506312</v>
+      </c>
+      <c r="G31">
+        <v>-0.02608209080161199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007959353589451258</v>
+        <v>-0.005309064518512862</v>
       </c>
       <c r="C32">
-        <v>-0.001043867942227816</v>
+        <v>0.03343119953834946</v>
       </c>
       <c r="D32">
-        <v>0.03313081097858279</v>
+        <v>0.004835834486694039</v>
       </c>
       <c r="E32">
-        <v>-0.01100860834966679</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01502614665700642</v>
+      </c>
+      <c r="F32">
+        <v>-0.0750190010355504</v>
+      </c>
+      <c r="G32">
+        <v>-0.05191346073155114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01158731016885925</v>
+        <v>-0.02933017360548847</v>
       </c>
       <c r="C33">
-        <v>-0.02175544503011894</v>
+        <v>0.04997835375248906</v>
       </c>
       <c r="D33">
-        <v>0.006056245830657103</v>
+        <v>-0.01388000133037397</v>
       </c>
       <c r="E33">
-        <v>0.03406968103115834</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02086317804373659</v>
+      </c>
+      <c r="F33">
+        <v>-0.02545296766062319</v>
+      </c>
+      <c r="G33">
+        <v>-0.02493922040512938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005640691151485192</v>
+        <v>-0.04563745065122745</v>
       </c>
       <c r="C34">
-        <v>-0.02893842928991457</v>
+        <v>0.05458627598384887</v>
       </c>
       <c r="D34">
-        <v>0.03625503227256782</v>
+        <v>0.005906796583377212</v>
       </c>
       <c r="E34">
-        <v>0.02128976241504912</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.01096090752790144</v>
+      </c>
+      <c r="F34">
+        <v>-0.02218146175760905</v>
+      </c>
+      <c r="G34">
+        <v>-0.02798966310731027</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01136314942615495</v>
+        <v>-0.01062278817482306</v>
       </c>
       <c r="C36">
-        <v>-0.01305822299561871</v>
+        <v>0.007076301800247307</v>
       </c>
       <c r="D36">
-        <v>0.001774267693838945</v>
+        <v>-0.01119811583427327</v>
       </c>
       <c r="E36">
-        <v>-0.0008541831661530085</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0003069773384976532</v>
+      </c>
+      <c r="F36">
+        <v>-0.000105580213488317</v>
+      </c>
+      <c r="G36">
+        <v>-0.01981317620443624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006451413565645453</v>
+        <v>-0.03464167436501332</v>
       </c>
       <c r="C38">
-        <v>-0.02862628491693061</v>
+        <v>0.02517755656925679</v>
       </c>
       <c r="D38">
-        <v>0.01475557058476341</v>
+        <v>0.008265800943988722</v>
       </c>
       <c r="E38">
-        <v>0.01777831391298105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004559517023034445</v>
+      </c>
+      <c r="F38">
+        <v>-0.001206058376079014</v>
+      </c>
+      <c r="G38">
+        <v>-0.02675754896993516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005501047749670709</v>
+        <v>-0.03232330082765791</v>
       </c>
       <c r="C39">
-        <v>-0.01602142122918451</v>
+        <v>0.08277016651816553</v>
       </c>
       <c r="D39">
-        <v>0.05558987653947731</v>
+        <v>-0.01145743956757374</v>
       </c>
       <c r="E39">
-        <v>0.04180048689508064</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.01239800096044221</v>
+      </c>
+      <c r="F39">
+        <v>-0.03873302847080532</v>
+      </c>
+      <c r="G39">
+        <v>-0.01870600165758465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01043612880310283</v>
+        <v>-0.01982339922093903</v>
       </c>
       <c r="C40">
-        <v>-0.02268692306849267</v>
+        <v>0.03079423652148567</v>
       </c>
       <c r="D40">
-        <v>0.02777389792876116</v>
+        <v>-0.01285360061439608</v>
       </c>
       <c r="E40">
-        <v>0.03242007614552098</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01695302458168665</v>
+      </c>
+      <c r="F40">
+        <v>-0.0213562100423454</v>
+      </c>
+      <c r="G40">
+        <v>-0.02157820835492049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004837321712469938</v>
+        <v>-0.01158414509294603</v>
       </c>
       <c r="C41">
-        <v>-0.0141854749467025</v>
+        <v>-0.001773380022131957</v>
       </c>
       <c r="D41">
-        <v>-0.00732552813070469</v>
+        <v>-0.003547371078744941</v>
       </c>
       <c r="E41">
-        <v>-0.005269999221774968</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003108408388619478</v>
+      </c>
+      <c r="F41">
+        <v>-0.001932655644709803</v>
+      </c>
+      <c r="G41">
+        <v>-0.01355270424972718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08765202538933081</v>
+        <v>-0.03102736178798858</v>
       </c>
       <c r="C42">
-        <v>-0.05147386469132727</v>
+        <v>0.05486501199698447</v>
       </c>
       <c r="D42">
-        <v>0.07457275375656058</v>
+        <v>-0.1015255445029322</v>
       </c>
       <c r="E42">
-        <v>0.2726210075379534</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.05785616500777468</v>
+      </c>
+      <c r="F42">
+        <v>0.1090066974551815</v>
+      </c>
+      <c r="G42">
+        <v>0.1956701027839408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.00570631899883333</v>
+        <v>-0.02843670847752202</v>
       </c>
       <c r="C43">
-        <v>-0.01443088117141177</v>
+        <v>0.00800998953352625</v>
       </c>
       <c r="D43">
-        <v>-0.008221080879316453</v>
+        <v>-0.003679317015026894</v>
       </c>
       <c r="E43">
-        <v>-0.0009948732752224968</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003519431046978505</v>
+      </c>
+      <c r="F43">
+        <v>0.0002660063123138177</v>
+      </c>
+      <c r="G43">
+        <v>-0.01748940345102908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002500276947115679</v>
+        <v>-0.01633602345298522</v>
       </c>
       <c r="C44">
-        <v>-0.00074285616380461</v>
+        <v>0.04660811288322791</v>
       </c>
       <c r="D44">
-        <v>0.01619064252790207</v>
+        <v>-0.006344674061481969</v>
       </c>
       <c r="E44">
-        <v>-0.001722611945383677</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01884707434299887</v>
+      </c>
+      <c r="F44">
+        <v>-0.02560356811228366</v>
+      </c>
+      <c r="G44">
+        <v>-0.03558619548752061</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.009751497679793379</v>
+        <v>-0.00294972105198598</v>
       </c>
       <c r="C46">
-        <v>-0.01002347935215718</v>
+        <v>0.01670802353096229</v>
       </c>
       <c r="D46">
-        <v>0.0156271353696872</v>
+        <v>-0.01158444135695621</v>
       </c>
       <c r="E46">
-        <v>0.009539990562351167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001140102906127661</v>
+      </c>
+      <c r="F46">
+        <v>0.01009322877241039</v>
+      </c>
+      <c r="G46">
+        <v>-0.02596715450428845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0002347882510789792</v>
+        <v>-0.07496855165851053</v>
       </c>
       <c r="C47">
-        <v>-0.07193861403918375</v>
+        <v>0.06332833782673747</v>
       </c>
       <c r="D47">
-        <v>0.02437206351857103</v>
+        <v>0.005317807851849792</v>
       </c>
       <c r="E47">
-        <v>0.02918575602380349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01254072022255162</v>
+      </c>
+      <c r="F47">
+        <v>0.0627548042707303</v>
+      </c>
+      <c r="G47">
+        <v>-0.02201633219672372</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002404146617934502</v>
+        <v>-0.01892490397843112</v>
       </c>
       <c r="C48">
-        <v>-0.02490957453956637</v>
+        <v>0.01041206485897433</v>
       </c>
       <c r="D48">
-        <v>0.005313784207131667</v>
+        <v>-0.0009048973787473681</v>
       </c>
       <c r="E48">
-        <v>0.002485776177598791</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.002226717546635049</v>
+      </c>
+      <c r="F48">
+        <v>0.01405330147776321</v>
+      </c>
+      <c r="G48">
+        <v>-0.0254538603022133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001088552648668493</v>
+        <v>-0.07908120074687297</v>
       </c>
       <c r="C50">
-        <v>-0.0625577418474258</v>
+        <v>0.06452655088613138</v>
       </c>
       <c r="D50">
-        <v>0.04357990876980818</v>
+        <v>0.004426401353609734</v>
       </c>
       <c r="E50">
-        <v>0.007918977570041844</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01455008963289115</v>
+      </c>
+      <c r="F50">
+        <v>0.05849011078809068</v>
+      </c>
+      <c r="G50">
+        <v>-0.04205966012093871</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006185268604407918</v>
+        <v>-0.01220269589344949</v>
       </c>
       <c r="C51">
-        <v>-0.002498446429111673</v>
+        <v>0.02710915961821057</v>
       </c>
       <c r="D51">
-        <v>-0.003258547057069984</v>
+        <v>-0.00865612045015518</v>
       </c>
       <c r="E51">
-        <v>-0.01907093772574025</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.00614389737608563</v>
+      </c>
+      <c r="F51">
+        <v>-0.03048593036540801</v>
+      </c>
+      <c r="G51">
+        <v>-0.04722441105953671</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.002027725724672272</v>
+        <v>-0.09611806995292248</v>
       </c>
       <c r="C53">
-        <v>-0.1013213570351057</v>
+        <v>0.07634238642074438</v>
       </c>
       <c r="D53">
-        <v>0.06386320573156688</v>
+        <v>0.006057148150323824</v>
       </c>
       <c r="E53">
-        <v>0.0460771561655182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03864050745260334</v>
+      </c>
+      <c r="F53">
+        <v>0.06639997383079417</v>
+      </c>
+      <c r="G53">
+        <v>-0.0239556117325657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.002435550218483225</v>
+        <v>-0.02905076994488596</v>
       </c>
       <c r="C54">
-        <v>-0.02412074648285179</v>
+        <v>0.004583035995282911</v>
       </c>
       <c r="D54">
-        <v>-0.002744369560049165</v>
+        <v>0.004157446615994508</v>
       </c>
       <c r="E54">
-        <v>-0.01144019933487977</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.003577418599763194</v>
+      </c>
+      <c r="F54">
+        <v>0.0014801832161285</v>
+      </c>
+      <c r="G54">
+        <v>-0.03074166255337381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-6.49234273264803e-05</v>
+        <v>-0.07362556231164492</v>
       </c>
       <c r="C55">
-        <v>-0.07788839346018518</v>
+        <v>0.0713489747214737</v>
       </c>
       <c r="D55">
-        <v>0.05661302319858778</v>
+        <v>0.005011493343647551</v>
       </c>
       <c r="E55">
-        <v>0.05258717631904963</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02701645399992667</v>
+      </c>
+      <c r="F55">
+        <v>0.06328739705366622</v>
+      </c>
+      <c r="G55">
+        <v>-0.00996234251521981</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0005489253511920383</v>
+        <v>-0.146989651357553</v>
       </c>
       <c r="C56">
-        <v>-0.1430674024158569</v>
+        <v>0.09952556399996086</v>
       </c>
       <c r="D56">
-        <v>0.07218757629625029</v>
+        <v>0.01464112017694441</v>
       </c>
       <c r="E56">
-        <v>0.06932506508978824</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04345160045007163</v>
+      </c>
+      <c r="F56">
+        <v>0.1017757189167959</v>
+      </c>
+      <c r="G56">
+        <v>-0.001048422196976689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02352743082605235</v>
+        <v>-0.01241674103127267</v>
       </c>
       <c r="C57">
-        <v>-0.0363270522676441</v>
+        <v>0.01177496987174988</v>
       </c>
       <c r="D57">
-        <v>0.01699735748493817</v>
+        <v>-0.02358985104157353</v>
       </c>
       <c r="E57">
-        <v>0.02481130925712083</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02744165929642177</v>
+      </c>
+      <c r="F57">
+        <v>-0.01552108788034332</v>
+      </c>
+      <c r="G57">
+        <v>-0.02214906637484556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0106002336989893</v>
+        <v>-0.07429198116176966</v>
       </c>
       <c r="C58">
-        <v>-0.09305118868847766</v>
+        <v>0.06938524093171893</v>
       </c>
       <c r="D58">
-        <v>-0.06720519642970704</v>
+        <v>-0.02004890593341486</v>
       </c>
       <c r="E58">
-        <v>0.1315579032161425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9422625164261711</v>
+      </c>
+      <c r="F58">
+        <v>0.2363530171763057</v>
+      </c>
+      <c r="G58">
+        <v>-0.05156495058681713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.01800955992224302</v>
+        <v>-0.149666507770526</v>
       </c>
       <c r="C59">
-        <v>-0.1318505575703282</v>
+        <v>-0.2143481453390931</v>
       </c>
       <c r="D59">
-        <v>-0.1940020870002773</v>
+        <v>0.01669686313003662</v>
       </c>
       <c r="E59">
-        <v>-0.1054810698809788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.0160435376624875</v>
+      </c>
+      <c r="F59">
+        <v>-0.009901045497771425</v>
+      </c>
+      <c r="G59">
+        <v>-0.01665579968230095</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02709261067101171</v>
+        <v>-0.2934841779133551</v>
       </c>
       <c r="C60">
-        <v>-0.1983504862039109</v>
+        <v>0.08362864277418799</v>
       </c>
       <c r="D60">
-        <v>-0.02858960260423612</v>
+        <v>-0.0072381206038831</v>
       </c>
       <c r="E60">
-        <v>0.06012755085519975</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02134741565610881</v>
+      </c>
+      <c r="F60">
+        <v>-0.3864034182246022</v>
+      </c>
+      <c r="G60">
+        <v>0.07449054879268409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002699130425008734</v>
+        <v>-0.03347882770030237</v>
       </c>
       <c r="C61">
-        <v>-0.02813602826342743</v>
+        <v>0.06299764881836145</v>
       </c>
       <c r="D61">
-        <v>0.04057930925009277</v>
+        <v>-0.00476847522666767</v>
       </c>
       <c r="E61">
-        <v>0.03897351128235025</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.007920005453093773</v>
+      </c>
+      <c r="F61">
+        <v>-0.02347521640112869</v>
+      </c>
+      <c r="G61">
+        <v>-0.01955391297394247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007348547660962023</v>
+        <v>-0.01492775969575705</v>
       </c>
       <c r="C63">
-        <v>-0.01230804109969414</v>
+        <v>0.02573309416082544</v>
       </c>
       <c r="D63">
-        <v>0.01520027169858347</v>
+        <v>-0.007655016767929375</v>
       </c>
       <c r="E63">
-        <v>0.005508248858360473</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01089194777478292</v>
+      </c>
+      <c r="F63">
+        <v>0.01148942772364393</v>
+      </c>
+      <c r="G63">
+        <v>-0.03004449642159302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.005509169565401121</v>
+        <v>-0.04707878696847676</v>
       </c>
       <c r="C64">
-        <v>-0.04343683426068773</v>
+        <v>0.03578006697413584</v>
       </c>
       <c r="D64">
-        <v>0.03317336513803661</v>
+        <v>-0.004468618190497723</v>
       </c>
       <c r="E64">
-        <v>0.03429757586561118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.008991779463692312</v>
+      </c>
+      <c r="F64">
+        <v>-0.01272185718666376</v>
+      </c>
+      <c r="G64">
+        <v>-0.01816191179202244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01727615464258329</v>
+        <v>-0.08080434208518181</v>
       </c>
       <c r="C65">
-        <v>-0.06340735563587679</v>
+        <v>0.0672487166957681</v>
       </c>
       <c r="D65">
-        <v>0.0520251442435574</v>
+        <v>-0.01503206961265925</v>
       </c>
       <c r="E65">
-        <v>0.0422997323048847</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.00494049843311474</v>
+      </c>
+      <c r="F65">
+        <v>-0.04098631744261671</v>
+      </c>
+      <c r="G65">
+        <v>-0.00959822955405844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005091529879684873</v>
+        <v>-0.05356050114928548</v>
       </c>
       <c r="C66">
-        <v>-0.03405049711442158</v>
+        <v>0.1151694213300426</v>
       </c>
       <c r="D66">
-        <v>0.05761536316821132</v>
+        <v>-0.01078443169011551</v>
       </c>
       <c r="E66">
-        <v>0.06622198499277113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.01539345386638381</v>
+      </c>
+      <c r="F66">
+        <v>-0.04789501557281611</v>
+      </c>
+      <c r="G66">
+        <v>-0.01096602527888916</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001852793542867356</v>
+        <v>-0.05851563713091492</v>
       </c>
       <c r="C67">
-        <v>-0.04599213530500399</v>
+        <v>0.02881150268684276</v>
       </c>
       <c r="D67">
-        <v>0.01052494814758461</v>
+        <v>0.00687882058130201</v>
       </c>
       <c r="E67">
-        <v>0.01951454957786908</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003456758570933777</v>
+      </c>
+      <c r="F67">
+        <v>0.0009850179991842431</v>
+      </c>
+      <c r="G67">
+        <v>-0.02568673696814628</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03587774094006732</v>
+        <v>-0.1316541254244021</v>
       </c>
       <c r="C68">
-        <v>-0.1166644508094404</v>
+        <v>-0.2711520441702901</v>
       </c>
       <c r="D68">
-        <v>-0.1931918223531803</v>
+        <v>-0.001493674765479595</v>
       </c>
       <c r="E68">
-        <v>-0.118704583675457</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01921090865554748</v>
+      </c>
+      <c r="F68">
+        <v>0.01437687873526322</v>
+      </c>
+      <c r="G68">
+        <v>-0.0192953115017066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003888956175727409</v>
+        <v>-0.078008100912522</v>
       </c>
       <c r="C69">
-        <v>-0.05994668603681095</v>
+        <v>0.06318250672881473</v>
       </c>
       <c r="D69">
-        <v>0.02633637305726467</v>
+        <v>0.009654389233674412</v>
       </c>
       <c r="E69">
-        <v>0.03005697123351807</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03049334367499876</v>
+      </c>
+      <c r="F69">
+        <v>0.04209479386247654</v>
+      </c>
+      <c r="G69">
+        <v>-0.01739739420416881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02472957370769546</v>
+        <v>-0.1279011364169465</v>
       </c>
       <c r="C71">
-        <v>-0.1100235307068397</v>
+        <v>-0.2279673565337746</v>
       </c>
       <c r="D71">
-        <v>-0.1675937416439455</v>
+        <v>0.00726591098516511</v>
       </c>
       <c r="E71">
-        <v>-0.1175356612350364</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02569995829678673</v>
+      </c>
+      <c r="F71">
+        <v>0.01802807546014367</v>
+      </c>
+      <c r="G71">
+        <v>-0.03586035404588383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002784278527822553</v>
+        <v>-0.0845046410883543</v>
       </c>
       <c r="C72">
-        <v>-0.1102350515422706</v>
+        <v>0.07695131888222542</v>
       </c>
       <c r="D72">
-        <v>0.06861409367862133</v>
+        <v>0.00903515398470655</v>
       </c>
       <c r="E72">
-        <v>0.09145625609157425</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01037672361731474</v>
+      </c>
+      <c r="F72">
+        <v>-0.03731077455819045</v>
+      </c>
+      <c r="G72">
+        <v>0.00120286609228462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.03992156426888866</v>
+        <v>-0.4046543476447462</v>
       </c>
       <c r="C73">
-        <v>-0.242986878669023</v>
+        <v>0.09991542362431381</v>
       </c>
       <c r="D73">
-        <v>-0.01735985535166309</v>
+        <v>-0.01152948100248722</v>
       </c>
       <c r="E73">
-        <v>0.1488262460089514</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06795619543539602</v>
+      </c>
+      <c r="F73">
+        <v>-0.5340891933086684</v>
+      </c>
+      <c r="G73">
+        <v>0.1276190052667412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001528612978390651</v>
+        <v>-0.1166863334776515</v>
       </c>
       <c r="C74">
-        <v>-0.1357871739483197</v>
+        <v>0.1158697711496297</v>
       </c>
       <c r="D74">
-        <v>0.06248662578130076</v>
+        <v>0.01096655744359012</v>
       </c>
       <c r="E74">
-        <v>0.0756176273783904</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.03757605367652533</v>
+      </c>
+      <c r="F74">
+        <v>0.07140962173814273</v>
+      </c>
+      <c r="G74">
+        <v>-0.01961867490558882</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.002970226904451183</v>
+        <v>-0.2630911883001575</v>
       </c>
       <c r="C75">
-        <v>-0.278570216568602</v>
+        <v>0.1443890546982776</v>
       </c>
       <c r="D75">
-        <v>0.1078149204351259</v>
+        <v>0.03242902832582235</v>
       </c>
       <c r="E75">
-        <v>0.1396115407690803</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.07808480397016539</v>
+      </c>
+      <c r="F75">
+        <v>0.2164735170036178</v>
+      </c>
+      <c r="G75">
+        <v>0.02723129249515407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.006323736453216235</v>
+        <v>-0.1378867989406647</v>
       </c>
       <c r="C76">
-        <v>-0.2337161735039836</v>
+        <v>0.1204986415975475</v>
       </c>
       <c r="D76">
-        <v>0.1169419965426124</v>
+        <v>0.02219059615126835</v>
       </c>
       <c r="E76">
-        <v>0.1113719467188226</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.06841386354520378</v>
+      </c>
+      <c r="F76">
+        <v>0.1353795063502926</v>
+      </c>
+      <c r="G76">
+        <v>-0.008642546872729093</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01183378502372535</v>
+        <v>-0.06140120306623141</v>
       </c>
       <c r="C77">
-        <v>-0.03060387807128869</v>
+        <v>0.06047811291450807</v>
       </c>
       <c r="D77">
-        <v>0.04053178200140101</v>
+        <v>-0.01199361276471216</v>
       </c>
       <c r="E77">
-        <v>0.03183527185886882</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04116944529735621</v>
+      </c>
+      <c r="F77">
+        <v>-0.02023988816889794</v>
+      </c>
+      <c r="G77">
+        <v>-0.04552592951965809</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.003819813753453304</v>
+        <v>-0.04061428439483852</v>
       </c>
       <c r="C78">
-        <v>-0.03244434770474043</v>
+        <v>0.05111632864628778</v>
       </c>
       <c r="D78">
-        <v>0.03620601587334541</v>
+        <v>-0.005257160081339932</v>
       </c>
       <c r="E78">
-        <v>0.02772296257229307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.01809682634641</v>
+      </c>
+      <c r="F78">
+        <v>-0.04139616658990806</v>
+      </c>
+      <c r="G78">
+        <v>-0.03158673515938847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01569951797459816</v>
+        <v>-0.0602966463096215</v>
       </c>
       <c r="C80">
-        <v>-0.2484811649577995</v>
+        <v>0.07295025810637952</v>
       </c>
       <c r="D80">
-        <v>0.5862503472312003</v>
+        <v>-0.01335432170873246</v>
       </c>
       <c r="E80">
-        <v>-0.7247100750117585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.06963646279592781</v>
+      </c>
+      <c r="F80">
+        <v>-0.03300260761245327</v>
+      </c>
+      <c r="G80">
+        <v>-0.918332361592353</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0005192863551177792</v>
+        <v>-0.145476104684881</v>
       </c>
       <c r="C81">
-        <v>-0.1849936158304362</v>
+        <v>0.09398131192918315</v>
       </c>
       <c r="D81">
-        <v>0.07788740089298687</v>
+        <v>0.01639653674301152</v>
       </c>
       <c r="E81">
-        <v>0.08143380196948655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04868500248104501</v>
+      </c>
+      <c r="F81">
+        <v>0.1374067851429813</v>
+      </c>
+      <c r="G81">
+        <v>-0.01483859508647672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05305640161946983</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03227384696153716</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.003103983086162688</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01462642012709377</v>
+      </c>
+      <c r="F82">
+        <v>0.004437333071009093</v>
+      </c>
+      <c r="G82">
+        <v>0.00549896200926331</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006400728889205964</v>
+        <v>-0.02886521072819303</v>
       </c>
       <c r="C83">
-        <v>-0.03513032581279556</v>
+        <v>0.02004193041348337</v>
       </c>
       <c r="D83">
-        <v>0.003919157781052418</v>
+        <v>-0.005063431156232763</v>
       </c>
       <c r="E83">
-        <v>0.01279752607036752</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02748158932912384</v>
+      </c>
+      <c r="F83">
+        <v>-0.02203337980887898</v>
+      </c>
+      <c r="G83">
+        <v>-0.02529087769829535</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.006199741422656904</v>
+        <v>-0.2402749250656863</v>
       </c>
       <c r="C85">
-        <v>-0.2383013094416414</v>
+        <v>0.1486857216855093</v>
       </c>
       <c r="D85">
-        <v>0.1198685131141073</v>
+        <v>0.02120415416876944</v>
       </c>
       <c r="E85">
-        <v>0.1580552304635569</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1231057972192192</v>
+      </c>
+      <c r="F85">
+        <v>0.2033824869171045</v>
+      </c>
+      <c r="G85">
+        <v>0.05210187791417005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.004859159009292095</v>
+        <v>-0.01044574816031622</v>
       </c>
       <c r="C86">
-        <v>0.0004144903256111794</v>
+        <v>0.02407807964487271</v>
       </c>
       <c r="D86">
-        <v>0.008915799386574745</v>
+        <v>-0.009470449772267587</v>
       </c>
       <c r="E86">
-        <v>0.002049700502545245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02519414480661201</v>
+      </c>
+      <c r="F86">
+        <v>-0.01852130745463398</v>
+      </c>
+      <c r="G86">
+        <v>-0.05704213737781527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006089881750225816</v>
+        <v>-0.0142275621208461</v>
       </c>
       <c r="C87">
-        <v>-0.01419739712597628</v>
+        <v>0.02817420032601404</v>
       </c>
       <c r="D87">
-        <v>0.0210628526455716</v>
+        <v>-0.01148045329815852</v>
       </c>
       <c r="E87">
-        <v>0.01713578536870456</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.07889270262163676</v>
+      </c>
+      <c r="F87">
+        <v>-0.05941778393088947</v>
+      </c>
+      <c r="G87">
+        <v>-0.04118204322165681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02574932996057548</v>
+        <v>-0.08819838288203066</v>
       </c>
       <c r="C88">
-        <v>-0.04544575442464407</v>
+        <v>0.05708026029355099</v>
       </c>
       <c r="D88">
-        <v>0.005658258127474781</v>
+        <v>-0.02134522093720827</v>
       </c>
       <c r="E88">
-        <v>0.01517366987125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.004947272117411305</v>
+      </c>
+      <c r="F88">
+        <v>-0.003895308485915414</v>
+      </c>
+      <c r="G88">
+        <v>-0.02303045255014849</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.04722326101913839</v>
+        <v>-0.216858651674076</v>
       </c>
       <c r="C89">
-        <v>-0.2267433623277761</v>
+        <v>-0.3693631146332074</v>
       </c>
       <c r="D89">
-        <v>-0.3381851074731216</v>
+        <v>0.008455869416598937</v>
       </c>
       <c r="E89">
-        <v>-0.1891537498333048</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01524188254333338</v>
+      </c>
+      <c r="F89">
+        <v>0.0313409868211879</v>
+      </c>
+      <c r="G89">
+        <v>-0.03047175532786098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03492820591119754</v>
+        <v>-0.1856655130972104</v>
       </c>
       <c r="C90">
-        <v>-0.1378261729285097</v>
+        <v>-0.3379247527784073</v>
       </c>
       <c r="D90">
-        <v>-0.2770920166775616</v>
+        <v>0.01186828862806016</v>
       </c>
       <c r="E90">
-        <v>-0.154806128998503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002818662961843109</v>
+      </c>
+      <c r="F90">
+        <v>0.04816123571855017</v>
+      </c>
+      <c r="G90">
+        <v>-0.005545393292505523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.002337385620490082</v>
+        <v>-0.2104219435951965</v>
       </c>
       <c r="C91">
-        <v>-0.2600110919721104</v>
+        <v>0.1340558082043989</v>
       </c>
       <c r="D91">
-        <v>0.1181694394406969</v>
+        <v>0.02533077553570375</v>
       </c>
       <c r="E91">
-        <v>0.1487329347862627</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08651452791513203</v>
+      </c>
+      <c r="F91">
+        <v>0.1907110164723335</v>
+      </c>
+      <c r="G91">
+        <v>0.006311154840825471</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.0006613705882783668</v>
+        <v>-0.2046080874846019</v>
       </c>
       <c r="C92">
-        <v>-0.2854185981718383</v>
+        <v>-0.2705893869137037</v>
       </c>
       <c r="D92">
-        <v>-0.2546488622938226</v>
+        <v>0.0542346529213247</v>
       </c>
       <c r="E92">
-        <v>-0.1255193337425986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.008174812087782814</v>
+      </c>
+      <c r="F92">
+        <v>0.1320634512295125</v>
+      </c>
+      <c r="G92">
+        <v>-0.06142008448581286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03390566212467783</v>
+        <v>-0.2108657588243463</v>
       </c>
       <c r="C93">
-        <v>-0.2013712932947697</v>
+        <v>-0.334364477687447</v>
       </c>
       <c r="D93">
-        <v>-0.3200571630344596</v>
+        <v>0.0186919265936758</v>
       </c>
       <c r="E93">
-        <v>-0.1508961191734672</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009434917726114836</v>
+      </c>
+      <c r="F93">
+        <v>0.02201931515530584</v>
+      </c>
+      <c r="G93">
+        <v>-0.003792818238273948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.0175045641192932</v>
+        <v>-0.2821462244681946</v>
       </c>
       <c r="C94">
-        <v>-0.2988110947117574</v>
+        <v>0.1552473144239667</v>
       </c>
       <c r="D94">
-        <v>0.07607965543398466</v>
+        <v>0.01460238076320702</v>
       </c>
       <c r="E94">
-        <v>0.1714283184054178</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.109419826964046</v>
+      </c>
+      <c r="F94">
+        <v>0.3906156347597484</v>
+      </c>
+      <c r="G94">
+        <v>0.1345536662995899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006471962208807054</v>
+        <v>-0.08171013841191416</v>
       </c>
       <c r="C95">
-        <v>-0.07606120676895858</v>
+        <v>0.077102855090092</v>
       </c>
       <c r="D95">
-        <v>-0.04048605205302279</v>
+        <v>0.007471604515459329</v>
       </c>
       <c r="E95">
-        <v>0.08799824928191372</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07940418289428486</v>
+      </c>
+      <c r="F95">
+        <v>-0.1600505593566768</v>
+      </c>
+      <c r="G95">
+        <v>0.05466227544384494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.001667173738536347</v>
+        <v>-0.210628270026441</v>
       </c>
       <c r="C98">
-        <v>-0.1885217057336634</v>
+        <v>0.04505065768190629</v>
       </c>
       <c r="D98">
-        <v>-0.02277488573511903</v>
+        <v>0.01733672594111891</v>
       </c>
       <c r="E98">
-        <v>0.07277944580295721</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06990638793134817</v>
+      </c>
+      <c r="F98">
+        <v>-0.241034920789983</v>
+      </c>
+      <c r="G98">
+        <v>0.03513754010182283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008040953816563974</v>
+        <v>-0.0139302403618936</v>
       </c>
       <c r="C101">
-        <v>-0.02531299405692185</v>
+        <v>0.02006380397447389</v>
       </c>
       <c r="D101">
-        <v>0.007435631638322527</v>
+        <v>-0.008349531567207583</v>
       </c>
       <c r="E101">
-        <v>0.008303987851266716</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.0359994033570115</v>
+      </c>
+      <c r="F101">
+        <v>0.02583341065008404</v>
+      </c>
+      <c r="G101">
+        <v>-0.03881875888166371</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01205667949302278</v>
+        <v>-0.124815943848324</v>
       </c>
       <c r="C102">
-        <v>-0.1423145340256721</v>
+        <v>0.08133660143873063</v>
       </c>
       <c r="D102">
-        <v>0.05480625998730922</v>
+        <v>0.000553819509981002</v>
       </c>
       <c r="E102">
-        <v>0.07146714363006366</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0438042518419235</v>
+      </c>
+      <c r="F102">
+        <v>0.06258827892711886</v>
+      </c>
+      <c r="G102">
+        <v>0.01176617242209197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001918121358670536</v>
+        <v>-0.004335749245319698</v>
       </c>
       <c r="C103">
-        <v>-0.02437730676427466</v>
+        <v>0.005397441686485187</v>
       </c>
       <c r="D103">
-        <v>0.02267914496065522</v>
+        <v>-0.0006366947428097979</v>
       </c>
       <c r="E103">
-        <v>0.002628468435146002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0006380667716857641</v>
+      </c>
+      <c r="F103">
+        <v>0.007825045929562435</v>
+      </c>
+      <c r="G103">
+        <v>-0.01664471840834354</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.987419302009943</v>
+        <v>-0.0396794033964343</v>
       </c>
       <c r="C104">
-        <v>0.07635367466709171</v>
+        <v>-0.04455249908700915</v>
       </c>
       <c r="D104">
-        <v>0.03395879874103149</v>
+        <v>-0.9861491514888152</v>
       </c>
       <c r="E104">
-        <v>0.001285164337429552</v>
+        <v>0.04466871970197337</v>
+      </c>
+      <c r="F104">
+        <v>0.03811075177776072</v>
+      </c>
+      <c r="G104">
+        <v>0.003427931655628462</v>
       </c>
     </row>
   </sheetData>
